--- a/Figure5/Figure 5C-stats.xlsx
+++ b/Figure5/Figure 5C-stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengyu/Dropbox (Brain Modulation Lab)/Dengyu/Thal_lexicality_paper/JNS/FiguresandTables/Figure5_stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengyu/Documents/GitHub/ThalLexicality/Figure5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B80772-E6DB-A049-8406-AE28C575B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39449509-ED71-6C49-BD63-FA00163B18F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{A7A1E4D3-2059-154E-A2A5-2147736A8D26}"/>
   </bookViews>
@@ -32,12 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>t_stat</t>
   </si>
   <si>
     <t>p_val</t>
+  </si>
+  <si>
+    <t>cohen_d</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D37B318-BAE8-CA47-B737-53D8B5541E72}">
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,126 +528,251 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-0.34640372230712702</v>
+      </c>
+      <c r="C2">
+        <v>-0.37326326780228503</v>
+      </c>
+      <c r="D2">
+        <v>0.28367980748415</v>
+      </c>
+      <c r="E2">
+        <v>0.50352791594158097</v>
+      </c>
+      <c r="F2">
+        <v>0.159012295206333</v>
+      </c>
+      <c r="G2">
+        <v>-0.41034264964734202</v>
+      </c>
+      <c r="H2">
+        <v>-0.24066307583883301</v>
+      </c>
+      <c r="I2">
+        <v>0.12983731583001401</v>
+      </c>
+      <c r="J2">
+        <v>0.345526839026493</v>
+      </c>
+      <c r="K2">
+        <v>0.28057601247056602</v>
+      </c>
+      <c r="L2">
+        <v>0.39212723853127801</v>
+      </c>
+      <c r="M2">
+        <v>0.61660089241443505</v>
+      </c>
+      <c r="N2">
+        <v>1.1869562802382201</v>
+      </c>
+      <c r="O2">
+        <v>1.6365469049559001</v>
+      </c>
+      <c r="P2">
+        <v>1.9013676765062399</v>
+      </c>
+      <c r="Q2">
+        <v>1.6140057656660101</v>
+      </c>
+      <c r="R2">
+        <v>1.3612505262955099</v>
+      </c>
+      <c r="S2">
+        <v>1.12137941908996</v>
+      </c>
+      <c r="T2">
+        <v>1.1313886357548599</v>
+      </c>
+      <c r="U2">
+        <v>1.0907267688494999</v>
+      </c>
+      <c r="V2">
+        <v>0.95305698303734998</v>
+      </c>
+      <c r="W2">
+        <v>1.0490506865406899</v>
+      </c>
+      <c r="X2">
+        <v>1.42043596291927</v>
+      </c>
+      <c r="Y2">
+        <v>1.31318230271617</v>
+      </c>
+      <c r="Z2">
+        <v>1.0758437510732499</v>
+      </c>
+      <c r="AA2">
+        <v>1.17997855180961</v>
+      </c>
+      <c r="AB2">
+        <v>1.4728432445989099</v>
+      </c>
+      <c r="AC2">
+        <v>0.99413702064169296</v>
+      </c>
+      <c r="AD2">
+        <v>0.82521747082498897</v>
+      </c>
+      <c r="AE2">
+        <v>1.0904316501779401</v>
+      </c>
+      <c r="AF2">
+        <v>1.04613298725781</v>
+      </c>
+      <c r="AG2">
+        <v>0.62622015386776697</v>
+      </c>
+      <c r="AH2">
+        <v>0.20713898610808501</v>
+      </c>
+      <c r="AI2">
+        <v>-6.0473317382998701E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.33381669648448598</v>
+      </c>
+      <c r="AK2">
+        <v>-0.46738210274546099</v>
+      </c>
+      <c r="AL2">
+        <v>-0.61234442592546601</v>
+      </c>
+      <c r="AM2">
+        <v>-0.61087457510365395</v>
+      </c>
+      <c r="AN2">
+        <v>-0.62545226542493704</v>
+      </c>
+      <c r="AO2">
+        <v>-1.00706553360533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.217471332803062</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.18591519820513</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.30781515344431398</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>8.2119113087909298E-2</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.56207758485416504</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.14866831638696201</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0.38424377045158298</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>0.63518988294391598</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>0.218570380727413</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0.31292646336066499</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>0.166092452051917</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>3.81520641443652E-2</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>6.6530518135921903E-4</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O3" s="1">
         <v>3.6403490522492E-5</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P3" s="1">
         <v>7.88279642411367E-6</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q3" s="1">
         <v>4.1724281402657702E-5</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>2.0613925712589299E-4</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>1.04769464107749E-3</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>9.7712461940901107E-4</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>1.29827158102986E-3</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>3.44902459434844E-3</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>1.74124599804145E-3</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>1.4024415278128299E-4</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>2.8322330166127401E-4</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>1.44140071581233E-3</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>6.9801842141299002E-4</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>1.00278719319602E-4</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>2.5715562532385499E-3</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>8.6494499720430208E-3</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>1.3009629723003001E-3</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>1.77754629034194E-3</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>3.5681837787542602E-2</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>0.45218216856260901</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>0.82450990348060005</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>0.23367821981103901</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>0.103884631886192</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>3.9296213464413698E-2</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>3.9698816585220002E-2</v>
       </c>
-      <c r="AN2">
+      <c r="AN3">
         <v>3.5873303275671703E-2</v>
       </c>
-      <c r="AO2">
+      <c r="AO3">
         <v>2.3453363937104301E-3</v>
       </c>
     </row>
